--- a/data/fig3-4_qPCR_cells/2016-04-08 174453 JC TP Muscle progenitors characterization-ViiA7-export.xlsx
+++ b/data/fig3-4_qPCR_cells/2016-04-08 174453 JC TP Muscle progenitors characterization-ViiA7-export.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0099120\Dropbox\Results\Rest\Chemokines project\Q-PCR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jordi Camps\stack\PhD\Results\Chemokine in muscular dystrophy project\Chemokines project\Q-PCR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{988B88FD-2F96-4586-84B3-D9BA0A5BE912}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView minimized="1" xWindow="1755" yWindow="270" windowWidth="14940" windowHeight="9150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1491,7 +1492,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
@@ -1526,7 +1527,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1542,7 +1543,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1617,6 +1618,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1652,6 +1670,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1827,14 +1862,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3430,7 +3469,7 @@
         <v>79</v>
       </c>
       <c r="D93" s="1">
-        <v>25.208999633789062</v>
+        <v>25.208999633789063</v>
       </c>
       <c r="E93" s="1">
         <v>0.2</v>
@@ -3666,7 +3705,7 @@
         <v>0.21217315343887883</v>
       </c>
       <c r="F103" s="1">
-        <v>64.091049194335937</v>
+        <v>64.091049194335938</v>
       </c>
       <c r="G103" t="s">
         <v>33</v>
@@ -4764,7 +4803,7 @@
         <v>99</v>
       </c>
       <c r="D151" s="1">
-        <v>36.080001831054687</v>
+        <v>36.080001831054688</v>
       </c>
       <c r="E151" s="1">
         <v>0.21217315343887883</v>
@@ -5477,7 +5516,7 @@
         <v>64</v>
       </c>
       <c r="D182" s="1">
-        <v>17.485000610351562</v>
+        <v>17.485000610351563</v>
       </c>
       <c r="E182" s="1">
         <v>0.2</v>
@@ -5500,7 +5539,7 @@
         <v>66</v>
       </c>
       <c r="D183" s="1">
-        <v>32.544998168945312</v>
+        <v>32.544998168945313</v>
       </c>
       <c r="E183" s="1">
         <v>0.10893885428375852</v>
@@ -5960,7 +5999,7 @@
         <v>107</v>
       </c>
       <c r="D203" s="1">
-        <v>16.429000854492187</v>
+        <v>16.429000854492188</v>
       </c>
       <c r="E203" s="1">
         <v>0.27091837961528276</v>
@@ -8588,7 +8627,7 @@
         <v>0.2389829220864218</v>
       </c>
       <c r="F317" s="1">
-        <v>79.544876098632812</v>
+        <v>79.544876098632813</v>
       </c>
       <c r="G317" t="s">
         <v>33</v>
@@ -9692,7 +9731,7 @@
         <v>0.2389829220864218</v>
       </c>
       <c r="F365" s="1">
-        <v>79.544876098632812</v>
+        <v>79.544876098632813</v>
       </c>
       <c r="G365" t="s">
         <v>33</v>
@@ -10244,7 +10283,7 @@
         <v>0.2389829220864218</v>
       </c>
       <c r="F389" s="1">
-        <v>79.544876098632812</v>
+        <v>79.544876098632813</v>
       </c>
       <c r="G389" t="s">
         <v>33</v>
